--- a/CharacterSelect/Mobile Dev Test Plan.xlsx
+++ b/CharacterSelect/Mobile Dev Test Plan.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Development\Desktop\Work\Winter 2017\uCIS 436\Projects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\londo\Documents\GitHub\CIS436-CharacterSelect\CharacterSelect\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9257F968-8CD6-4EA6-9B0C-ED39A2D81BB9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="January 30, 2017" sheetId="1" r:id="rId1"/>
+    <sheet name="3 13 2019" sheetId="1" r:id="rId1"/>
     <sheet name="January 31, 2017" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="40">
   <si>
     <t>Test case plan</t>
   </si>
@@ -102,20 +103,59 @@
     <t>Sam</t>
   </si>
   <si>
-    <t>Failed</t>
-  </si>
-  <si>
-    <t>App crashed when user clicks button to log in.  Bug not fixed yet.</t>
-  </si>
-  <si>
     <t>Bug fixed by Sam on1/31/2017</t>
+  </si>
+  <si>
+    <t>Android 8.0 (Phone/physical)</t>
+  </si>
+  <si>
+    <t>Android 8.0 (Tablet/Emulator)</t>
+  </si>
+  <si>
+    <t>Matt</t>
+  </si>
+  <si>
+    <t>Page switches</t>
+  </si>
+  <si>
+    <t>User selects Warrior</t>
+  </si>
+  <si>
+    <t>the application has the warrior fragment on by default on the tablet variant</t>
+  </si>
+  <si>
+    <t>User selects Mage</t>
+  </si>
+  <si>
+    <t>On a phone screen, a new activity with Mage stats opens. On a tablet, the right side container shows the Mage fragment</t>
+  </si>
+  <si>
+    <t>User selects Healer</t>
+  </si>
+  <si>
+    <t>User selects Hunter</t>
+  </si>
+  <si>
+    <t>On a phone screen, a new activity with Warrior stats opens. On a tablet, the right side container shows the warrior fragment</t>
+  </si>
+  <si>
+    <t>On a phone screen, a new activity with Healer stats opens. On a tablet, the right side container shows the healer  fragment</t>
+  </si>
+  <si>
+    <t>On a phone screen, a new activity with Hunter stats opens. On a tablet, the right side container shows the hunter fragment</t>
+  </si>
+  <si>
+    <t>User selects Paladin</t>
+  </si>
+  <si>
+    <t>On a phone screen, a new activity with Paladin stats opens. On a tablet, the right side fragment shows the paladin fragment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,13 +166,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -164,7 +197,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -174,11 +207,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
     <fill>
@@ -238,14 +266,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -257,30 +284,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+  <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -309,7 +335,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -587,12 +613,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,27 +629,25 @@
     <col min="4" max="4" width="35.5703125" customWidth="1"/>
     <col min="5" max="5" width="28.140625" customWidth="1"/>
     <col min="6" max="6" width="19.5703125" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" customWidth="1"/>
-    <col min="9" max="9" width="19.85546875" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-    </row>
-    <row r="2" spans="1:9" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10">
-        <v>42765</v>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+    </row>
+    <row r="2" spans="1:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9">
+        <v>43537</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -632,9 +656,8 @@
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-    </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:8" s="1" customFormat="1" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -654,16 +677,13 @@
         <v>6</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -677,7 +697,7 @@
         <v>12</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>14</v>
@@ -685,25 +705,25 @@
       <c r="H4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:8" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>17</v>
+        <v>35</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>14</v>
@@ -711,25 +731,22 @@
       <c r="H5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:8" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>14</v>
@@ -737,28 +754,22 @@
       <c r="H6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:8" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>14</v>
@@ -766,19 +777,60 @@
       <c r="H7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="8" spans="1:8" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:8" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:8" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:8" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:8" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:8" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:8" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -786,22 +838,24 @@
     <row r="21" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="27" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="28" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -822,30 +876,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
     </row>
     <row r="2" spans="1:9" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10">
+      <c r="A2" s="9">
         <v>42766</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
@@ -968,7 +1022,7 @@
         <v>22</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>23</v>

--- a/CharacterSelect/Mobile Dev Test Plan.xlsx
+++ b/CharacterSelect/Mobile Dev Test Plan.xlsx
@@ -8,28 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\londo\Documents\GitHub\CIS436-CharacterSelect\CharacterSelect\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9257F968-8CD6-4EA6-9B0C-ED39A2D81BB9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01FC1CE-A6D1-4091-BD07-642275FBD6DC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3 13 2019" sheetId="1" r:id="rId1"/>
-    <sheet name="January 31, 2017" sheetId="2" r:id="rId2"/>
+    <sheet name="3 14 2019" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="44">
   <si>
     <t>Test case plan</t>
   </si>
@@ -52,15 +58,6 @@
     <t>Tested by</t>
   </si>
   <si>
-    <t>Android 5.0 Galaxy Note 5 (HW)</t>
-  </si>
-  <si>
-    <t>Android 4.1 (Emulator)</t>
-  </si>
-  <si>
-    <t>Android 4.0 (Emulator)</t>
-  </si>
-  <si>
     <t>Startup</t>
   </si>
   <si>
@@ -70,48 +67,12 @@
     <t>After tapping the app icon, the app loads within 3 seconds</t>
   </si>
   <si>
-    <t>Bob</t>
-  </si>
-  <si>
     <t>Passed</t>
   </si>
   <si>
-    <t>Login</t>
-  </si>
-  <si>
-    <t>Existing User logs in</t>
-  </si>
-  <si>
-    <t>A user with a valid e-mail and pass can enter them into EditTexts and log in successfully</t>
-  </si>
-  <si>
-    <t>Non-user cannot log in</t>
-  </si>
-  <si>
-    <t>A user without a valid e-mail and/or pass cannot log in</t>
-  </si>
-  <si>
-    <t>Create Account</t>
-  </si>
-  <si>
-    <t>New user can create account</t>
-  </si>
-  <si>
-    <t>A user can successfully create an account</t>
-  </si>
-  <si>
-    <t>Sam</t>
-  </si>
-  <si>
-    <t>Bug fixed by Sam on1/31/2017</t>
-  </si>
-  <si>
     <t>Android 8.0 (Phone/physical)</t>
   </si>
   <si>
-    <t>Android 8.0 (Tablet/Emulator)</t>
-  </si>
-  <si>
     <t>Matt</t>
   </si>
   <si>
@@ -149,13 +110,91 @@
   </si>
   <si>
     <t>On a phone screen, a new activity with Paladin stats opens. On a tablet, the right side fragment shows the paladin fragment</t>
+  </si>
+  <si>
+    <t>Logic</t>
+  </si>
+  <si>
+    <t>Warrior stats screen</t>
+  </si>
+  <si>
+    <t>Select 1 star for each stat, expect "points left to spend" to be 6</t>
+  </si>
+  <si>
+    <t>Save any random combination of skills. Press the android back button, and reselect Warrior. The same skills should be reloaded</t>
+  </si>
+  <si>
+    <t>From an empty stat screen, set Strength and Intellect to 5 stars.  Try selecting a rating for wisdom. Expect a toast saying that wisdom exceeds the point limit.</t>
+  </si>
+  <si>
+    <t>From an empty stat screen, set Strength and Intellect to 5 stars.  Points left to spend should be zero.</t>
+  </si>
+  <si>
+    <t>Mage stats screen</t>
+  </si>
+  <si>
+    <t>Select 2 stars for each stat, expect "points left to spend" to be 2</t>
+  </si>
+  <si>
+    <t>From an empty stat screen, set Strength and Wisdom to 5 stars.  Try selecting a rating for intellect. Expect a toast saying that intellect exceeds the point limit.</t>
+  </si>
+  <si>
+    <t>From an empty stat screen, set Strength and Wisdom to 5 stars.  Try selecting a rating for intellect.  Points left to spend should be zero.</t>
+  </si>
+  <si>
+    <t>Save any random combination of skills. Press the android back button, and reselect Mage. The same skills should be reloaded.</t>
+  </si>
+  <si>
+    <t>Healer stats screen</t>
+  </si>
+  <si>
+    <t>From an empty stat screen, set Strength and Dexterity to 5 stars.  Try selecting a rating for intellect. Expect a toast saying that intellect exceeds the point limit.</t>
+  </si>
+  <si>
+    <t>Save any random combination of skills. Press the android back button, and reselect Healer. The same skills should be reloaded.</t>
+  </si>
+  <si>
+    <t>Hunter stats screen</t>
+  </si>
+  <si>
+    <t>Save any random combination of skills. Press the android back button, and reselect Hunter. The same skills should be reloaded.</t>
+  </si>
+  <si>
+    <t>Paladin stats screen</t>
+  </si>
+  <si>
+    <t>Save any random combination of skills. Press the android back button, and reselect Paladin. The same skills should be reloaded.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Android 8.0 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>LANDSCAPE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Tablet/Emulator)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,6 +232,13 @@
       <b/>
       <sz val="22"/>
       <color theme="5" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -270,7 +316,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -297,9 +343,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -617,8 +660,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,15 +692,15 @@
       <c r="A2" s="9">
         <v>43537</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-    </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" spans="1:8" s="1" customFormat="1" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -677,10 +720,10 @@
         <v>6</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -688,22 +731,22 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -711,25 +754,25 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -737,22 +780,22 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -760,22 +803,22 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -783,22 +826,22 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -806,22 +849,22 @@
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -851,15 +894,16 @@
     <mergeCell ref="A2:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -870,12 +914,12 @@
     <col min="4" max="4" width="35.5703125" customWidth="1"/>
     <col min="5" max="5" width="28.140625" customWidth="1"/>
     <col min="6" max="6" width="19.5703125" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" customWidth="1"/>
     <col min="9" max="9" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -886,11 +930,10 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-    </row>
-    <row r="2" spans="1:9" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
-        <v>42766</v>
+        <v>43538</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -899,9 +942,8 @@
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-    </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:8" s="1" customFormat="1" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -921,147 +963,485 @@
         <v>6</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <f>A4+1</f>
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <f t="shared" ref="A6:A27" si="0">A5+1</f>
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="B14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="B16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="B17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="B18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="B19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>3</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="B21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>4</v>
-      </c>
-      <c r="B7" s="2" t="s">
+    </row>
+    <row r="23" spans="1:8" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C7" s="2" t="s">
+    </row>
+    <row r="24" spans="1:8" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="D7" s="2" t="s">
+    </row>
+    <row r="25" spans="1:8" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="E7" s="2" t="s">
+    </row>
+    <row r="26" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="28" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
